--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1503109.598286873</v>
+        <v>-1505810.467004273</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>323.8388427438205</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.5782552489642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>1.781160222249673</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>186.1075578061191</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.23783846787794</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.264474711071645</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63950530374223</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.0784507200694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>85.67291306389048</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.899071969991</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.73157051923169</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.27150084978849</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>73.78331078915251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.12869588327256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>110.1444095748051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652616</v>
+        <v>56.98118882652663</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.010065354185</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.688211171978</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.688211171978</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>870.3292415458918</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1448.458687947104</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1225.480207141839</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>936.3618696456771</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>681.6773814397902</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>681.6773814397902</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2522.705148129571</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2313.959506735396</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.959506735396</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>2313.959506735396</v>
+        <v>1973.026070603629</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.190851465281</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.725093204202</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="6">
@@ -4626,49 +4626,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.189556406156</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1056.199744578928</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="W7" t="n">
-        <v>1056.199744578928</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="X7" t="n">
-        <v>828.2101936809104</v>
+        <v>597.1475965504969</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.8380212363958</v>
+        <v>376.3550174069668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>1195.040196257711</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2475.801032376023</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2475.801032376023</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2475.801032376023</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2475.801032376023</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2475.801032376023</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y8" t="n">
-        <v>2085.661700400211</v>
+        <v>1581.640036321833</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042426</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070929</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070929</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.2923372856468</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5841,16 +5841,16 @@
         <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797272</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>280.1079373569282</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.030432851514</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>30.36925650589455</v>
       </c>
       <c r="P6" t="n">
-        <v>224.3355197601771</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.0073097921338</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-3.747147507778397e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>58.89499891966011</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>402.7664347977591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>196.5807898737875</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.6596834070894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8.554902555618384</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3131525023063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.339550858072471e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1056444.961760935</v>
+        <v>1056444.961760934</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455268</v>
+        <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,13 +26326,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
@@ -26341,7 +26341,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262496</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363182</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41769.40924959299</v>
+        <v>41769.40924959287</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707392</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980087</v>
+        <v>14888.2837598009</v>
       </c>
       <c r="L4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="M4" t="n">
         <v>14888.28375980086</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>14888.28375980082</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980084</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980083</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980082</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1133414.12141983</v>
+        <v>-1133808.942360984</v>
       </c>
       <c r="C6" t="n">
-        <v>-81165.18954522006</v>
+        <v>-81165.18954521997</v>
       </c>
       <c r="D6" t="n">
-        <v>-81165.18954522006</v>
+        <v>-81165.18954522003</v>
       </c>
       <c r="E6" t="n">
-        <v>-474254.7409994092</v>
+        <v>-474289.4789248451</v>
       </c>
       <c r="F6" t="n">
-        <v>33230.70062513665</v>
+        <v>33195.96269970093</v>
       </c>
       <c r="G6" t="n">
-        <v>33230.7006251366</v>
+        <v>33195.96269970087</v>
       </c>
       <c r="H6" t="n">
-        <v>33230.70062513663</v>
+        <v>33195.9626997009</v>
       </c>
       <c r="I6" t="n">
-        <v>33230.7006251366</v>
+        <v>33195.96269970102</v>
       </c>
       <c r="J6" t="n">
-        <v>-134374.4771848459</v>
+        <v>-134409.2151102816</v>
       </c>
       <c r="K6" t="n">
-        <v>6202.192118901614</v>
+        <v>6202.192118901541</v>
       </c>
       <c r="L6" t="n">
-        <v>25629.91011253341</v>
+        <v>25629.9101125334</v>
       </c>
       <c r="M6" t="n">
         <v>-106977.3836163934</v>
       </c>
       <c r="N6" t="n">
+        <v>25629.91011253338</v>
+      </c>
+      <c r="O6" t="n">
         <v>25629.9101125334</v>
       </c>
-      <c r="O6" t="n">
-        <v>25629.91011253344</v>
-      </c>
       <c r="P6" t="n">
-        <v>6202.192118901599</v>
+        <v>6202.192118901585</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.109610943952305</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.4377626886179</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>84.21437693091644</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>325.4877837590632</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1924748781951</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.50620263202535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>120.9852719163433</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>92.33886668606254</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.8530828328631</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>629.0082733147303</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>300.768778117042</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>614.7544723218309</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>577.7882979947783</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>600.4551148476371</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>365.7939385020177</v>
       </c>
       <c r="P6" t="n">
-        <v>474.0150488837094</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>560.2586790698755</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>490.4538935348562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>169.4270660337087</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>476.2000925419567</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
